--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85077F66-C5A5-4740-BDAE-3BD66A0FFF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9ED805-78A4-4084-BC04-C4FEFCC20166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{22BBAD9E-4F92-4AC3-93AF-C87D1CDCAAA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9670" xr2:uid="{22BBAD9E-4F92-4AC3-93AF-C87D1CDCAAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="workbook" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,8 +605,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9ED805-78A4-4084-BC04-C4FEFCC20166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD3A74-8AAF-4489-864A-287BC9CCA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9670" xr2:uid="{22BBAD9E-4F92-4AC3-93AF-C87D1CDCAAA3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{22BBAD9E-4F92-4AC3-93AF-C87D1CDCAAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="workbook" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>category</t>
   </si>
@@ -95,19 +96,124 @@
     <t>Mixta sobre papel misionero</t>
   </si>
   <si>
-    <t>30, 30</t>
-  </si>
-  <si>
-    <t>pintura/ninho_con_gallina.jpg</t>
-  </si>
-  <si>
     <t>Niño con gallina</t>
   </si>
   <si>
     <t>Acuarelas y tintas</t>
   </si>
   <si>
-    <t>25, 35</t>
+    <t>pequeño formato</t>
+  </si>
+  <si>
+    <t>pintura/cosechador.jpg</t>
+  </si>
+  <si>
+    <t>Cosechador</t>
+  </si>
+  <si>
+    <t>Acuarelas y lápices acuarelables</t>
+  </si>
+  <si>
+    <t>pintura/niño_con_gallina.jpg</t>
+  </si>
+  <si>
+    <t>pintura/niñitos_en_espera.jpg</t>
+  </si>
+  <si>
+    <t>Niñitos en espera</t>
+  </si>
+  <si>
+    <t>Acrílico sobre tela</t>
+  </si>
+  <si>
+    <t>100, 80</t>
+  </si>
+  <si>
+    <t>Recolección de huevos</t>
+  </si>
+  <si>
+    <t>Pinturas, acuarelas, tintas y lapices acuarelables sobre papel 300 gr</t>
+  </si>
+  <si>
+    <t>Niñito cosechador</t>
+  </si>
+  <si>
+    <t>Acuarelas, lapices acuarelables y tintas sobre papel 300 gr</t>
+  </si>
+  <si>
+    <t>pintura/recoleccion_de_huevos.jpeg</t>
+  </si>
+  <si>
+    <t>pintura/niñito_cosechador.jpeg</t>
+  </si>
+  <si>
+    <t>pintura/cosechador_cuyano.jpeg</t>
+  </si>
+  <si>
+    <t>Cosechador cuyano</t>
+  </si>
+  <si>
+    <t>Acuarelas y lápices acuarelables sobre papel 300 gr</t>
+  </si>
+  <si>
+    <t>pintura/niña_cosechadora.jpeg</t>
+  </si>
+  <si>
+    <t>Niña cosechadora</t>
+  </si>
+  <si>
+    <t>Acuarelas, lapices acuarelables y tintas</t>
+  </si>
+  <si>
+    <t>pintura/niños_cosechadores.jpeg</t>
+  </si>
+  <si>
+    <t>Niños cosechadores</t>
+  </si>
+  <si>
+    <t>pintura/gallo_y_gallina.jpg</t>
+  </si>
+  <si>
+    <t>Gallo y gallina</t>
+  </si>
+  <si>
+    <t>Acuarelas y lapices acuarelables sobre papel 120 gr. Papel teñido</t>
+  </si>
+  <si>
+    <t>pintura/samba_tejida_al_cielo.jpg</t>
+  </si>
+  <si>
+    <t>Samba tejida al cielo</t>
+  </si>
+  <si>
+    <t>Acuarelas y lápices acuarelables sobre papel</t>
+  </si>
+  <si>
+    <t>40, 45</t>
+  </si>
+  <si>
+    <t>técnica mixta</t>
+  </si>
+  <si>
+    <t>tecnica_mixta/una_esquina_de_rawson.jpg</t>
+  </si>
+  <si>
+    <t>Una esquina de Rawson</t>
+  </si>
+  <si>
+    <t>Dibujo acuarelado y tintas</t>
+  </si>
+  <si>
+    <t>tecnica_mixta/sobrados_de_choclos.jpg</t>
+  </si>
+  <si>
+    <t>Sobrados de choclos</t>
+  </si>
+  <si>
+    <t>Dibujo a tinta coloreado con acuarelas</t>
+  </si>
+  <si>
+    <t>40, 80</t>
   </si>
 </sst>
 </file>
@@ -477,26 +583,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45185FB-4A66-47DA-AFA7-C528BEDFF85D}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -551,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -568,38 +674,324 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>2021</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>2017</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elias\Desktop\Cristian\Varios\vsc\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD3A74-8AAF-4489-864A-287BC9CCA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{22BBAD9E-4F92-4AC3-93AF-C87D1CDCAAA3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11385" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="workbook" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>category</t>
   </si>
@@ -69,9 +67,6 @@
     <t>pintura</t>
   </si>
   <si>
-    <t>pintura/colmena.jpg</t>
-  </si>
-  <si>
     <t>Colmena</t>
   </si>
   <si>
@@ -87,9 +82,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>pintura/tiempos_de_despertar.jpg</t>
-  </si>
-  <si>
     <t>Tiempos de despertar</t>
   </si>
   <si>
@@ -105,21 +97,12 @@
     <t>pequeño formato</t>
   </si>
   <si>
-    <t>pintura/cosechador.jpg</t>
-  </si>
-  <si>
     <t>Cosechador</t>
   </si>
   <si>
     <t>Acuarelas y lápices acuarelables</t>
   </si>
   <si>
-    <t>pintura/niño_con_gallina.jpg</t>
-  </si>
-  <si>
-    <t>pintura/niñitos_en_espera.jpg</t>
-  </si>
-  <si>
     <t>Niñitos en espera</t>
   </si>
   <si>
@@ -141,48 +124,27 @@
     <t>Acuarelas, lapices acuarelables y tintas sobre papel 300 gr</t>
   </si>
   <si>
-    <t>pintura/recoleccion_de_huevos.jpeg</t>
-  </si>
-  <si>
-    <t>pintura/niñito_cosechador.jpeg</t>
-  </si>
-  <si>
-    <t>pintura/cosechador_cuyano.jpeg</t>
-  </si>
-  <si>
     <t>Cosechador cuyano</t>
   </si>
   <si>
     <t>Acuarelas y lápices acuarelables sobre papel 300 gr</t>
   </si>
   <si>
-    <t>pintura/niña_cosechadora.jpeg</t>
-  </si>
-  <si>
     <t>Niña cosechadora</t>
   </si>
   <si>
     <t>Acuarelas, lapices acuarelables y tintas</t>
   </si>
   <si>
-    <t>pintura/niños_cosechadores.jpeg</t>
-  </si>
-  <si>
     <t>Niños cosechadores</t>
   </si>
   <si>
-    <t>pintura/gallo_y_gallina.jpg</t>
-  </si>
-  <si>
     <t>Gallo y gallina</t>
   </si>
   <si>
     <t>Acuarelas y lapices acuarelables sobre papel 120 gr. Papel teñido</t>
   </si>
   <si>
-    <t>pintura/samba_tejida_al_cielo.jpg</t>
-  </si>
-  <si>
     <t>Samba tejida al cielo</t>
   </si>
   <si>
@@ -192,21 +154,12 @@
     <t>40, 45</t>
   </si>
   <si>
-    <t>técnica mixta</t>
-  </si>
-  <si>
-    <t>tecnica_mixta/una_esquina_de_rawson.jpg</t>
-  </si>
-  <si>
     <t>Una esquina de Rawson</t>
   </si>
   <si>
     <t>Dibujo acuarelado y tintas</t>
   </si>
   <si>
-    <t>tecnica_mixta/sobrados_de_choclos.jpg</t>
-  </si>
-  <si>
     <t>Sobrados de choclos</t>
   </si>
   <si>
@@ -214,12 +167,57 @@
   </si>
   <si>
     <t>40, 80</t>
+  </si>
+  <si>
+    <t>mixta</t>
+  </si>
+  <si>
+    <t>una_esquina_de_rawson.jpg</t>
+  </si>
+  <si>
+    <t>sobrados_de_choclos.jpg</t>
+  </si>
+  <si>
+    <t>colmena.jpg</t>
+  </si>
+  <si>
+    <t>tiempos_de_despertar.jpg</t>
+  </si>
+  <si>
+    <t>niño_con_gallina.jpg</t>
+  </si>
+  <si>
+    <t>cosechador.jpg</t>
+  </si>
+  <si>
+    <t>niñitos_en_espera.jpg</t>
+  </si>
+  <si>
+    <t>recoleccion_de_huevos.jpeg</t>
+  </si>
+  <si>
+    <t>niñito_cosechador.jpeg</t>
+  </si>
+  <si>
+    <t>cosechador_cuyano.jpeg</t>
+  </si>
+  <si>
+    <t>niña_cosechadora.jpeg</t>
+  </si>
+  <si>
+    <t>niños_cosechadores.jpeg</t>
+  </si>
+  <si>
+    <t>gallo_y_gallina.jpg</t>
+  </si>
+  <si>
+    <t>samba_tejida_al_cielo.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,13 +247,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -269,18 +307,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4975CF92-8190-4360-A734-F99E49B9033A}" name="Tabla1" displayName="Tabla1" ref="A1:I100" totalsRowShown="0">
-  <autoFilter ref="A1:I100" xr:uid="{4975CF92-8190-4360-A734-F99E49B9033A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I100" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:I100"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AFBD20A2-5EDE-4B5A-879C-3F539DAB835C}" name="category"/>
-    <tableColumn id="2" xr3:uid="{8628312C-6D47-4FDE-B2A0-29C1953DEA63}" name="image"/>
-    <tableColumn id="3" xr3:uid="{CB059BC0-9DAC-44C0-890B-4E4517D6FD55}" name="title"/>
-    <tableColumn id="4" xr3:uid="{26605904-96EF-48AA-870F-BF3986AC95EA}" name="date"/>
-    <tableColumn id="5" xr3:uid="{6F9BEF33-7D5C-40CC-9C43-432421D37FDB}" name="technique"/>
-    <tableColumn id="6" xr3:uid="{35AA344A-09B1-4DB6-986C-A31C4B63F779}" name="dimensions"/>
-    <tableColumn id="7" xr3:uid="{6EAEAD8E-0FCA-4F51-A082-8497F017EE5B}" name="series"/>
-    <tableColumn id="8" xr3:uid="{E208459F-1087-47F3-8CC4-C0A33C265251}" name="onSale"/>
-    <tableColumn id="9" xr3:uid="{E1577C6C-F701-4768-96E5-E80418C7F5F0}" name="awarded"/>
+    <tableColumn id="1" name="category" dataDxfId="10"/>
+    <tableColumn id="2" name="image" dataDxfId="9"/>
+    <tableColumn id="3" name="title" dataDxfId="2"/>
+    <tableColumn id="4" name="date" dataDxfId="0"/>
+    <tableColumn id="5" name="technique" dataDxfId="1"/>
+    <tableColumn id="6" name="dimensions" dataDxfId="6"/>
+    <tableColumn id="7" name="series" dataDxfId="5"/>
+    <tableColumn id="8" name="onSale" dataDxfId="4"/>
+    <tableColumn id="9" name="awarded" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,417 +620,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45185FB-4A66-47DA-AFA7-C528BEDFF85D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
         <v>2020</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
         <v>2020</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>2019</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
         <v>2020</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2">
         <v>2021</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>2020</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>2021</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
-        <v>2021</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10">
-        <v>2021</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>2021</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>2017</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elias\Desktop\Cristian\Varios\vsc\portfolio_carabante\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E55F88-47BF-43B5-B4E0-5FA5239B9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11385" windowHeight="13365"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workbook" sheetId="1" r:id="rId1"/>
     <sheet name="workbook (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -872,7 +873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1275,44 +1276,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J103" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:J103"/>
-  <sortState ref="A2:J100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J103" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:J103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
     <sortCondition ref="A1:A103"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="10" name="order" dataDxfId="21"/>
-    <tableColumn id="1" name="category" dataDxfId="20"/>
-    <tableColumn id="2" name="image" dataDxfId="19"/>
-    <tableColumn id="3" name="title" dataDxfId="18"/>
-    <tableColumn id="4" name="date" dataDxfId="17"/>
-    <tableColumn id="5" name="technique" dataDxfId="16"/>
-    <tableColumn id="6" name="dimensions" dataDxfId="15"/>
-    <tableColumn id="7" name="series" dataDxfId="14"/>
-    <tableColumn id="8" name="onSale" dataDxfId="13"/>
-    <tableColumn id="9" name="awarded" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="order" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="category" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="image" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="date" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="technique" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="dimensions" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="series" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="onSale" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="awarded" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:J103" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J103"/>
-  <sortState ref="A2:J100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:J103" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J103" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
     <sortCondition ref="A1:A103"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="10" name="order" dataDxfId="9"/>
-    <tableColumn id="1" name="category" dataDxfId="8"/>
-    <tableColumn id="2" name="image" dataDxfId="7"/>
-    <tableColumn id="3" name="title" dataDxfId="6"/>
-    <tableColumn id="4" name="date" dataDxfId="5"/>
-    <tableColumn id="5" name="technique" dataDxfId="4"/>
-    <tableColumn id="6" name="dimensions" dataDxfId="3"/>
-    <tableColumn id="7" name="series" dataDxfId="2"/>
-    <tableColumn id="8" name="onSale" dataDxfId="1"/>
-    <tableColumn id="9" name="awarded" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="order" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="category" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="image" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="title" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="technique" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="dimensions" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="series" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="onSale" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="awarded" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1614,29 +1615,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F16" s="3"/>
     </row>
   </sheetData>
@@ -2129,29 +2130,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF2E82A-31EC-4349-85DD-36210E31B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF0A55-FF0F-4EE1-AB53-FF02B0ADB28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Cosechador cuyano</t>
   </si>
   <si>
-    <t>Acuarelas y lápices acuarelables sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Niña cosechadora</t>
   </si>
   <si>
@@ -234,15 +231,9 @@
     <t>Tejedora</t>
   </si>
   <si>
-    <t>Dibujo con tinta y coloreado con anilina sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Tonadero</t>
   </si>
   <si>
-    <t>Dibujo pintado con acuarelas y vino tinto sanjuanino sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>retrato</t>
   </si>
   <si>
@@ -273,24 +264,12 @@
     <t>Niña</t>
   </si>
   <si>
-    <t>Pinturas, acuarelas, tintas y lápices acuarelables sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Acuarelas, lápices acuarelables y tintas sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Acuarelas, lápices acuarelables y tintas</t>
   </si>
   <si>
-    <t>Acuarelas y lápices acuarelables sobre papel 120 gr. Papel teñido</t>
-  </si>
-  <si>
     <t>Dibujo a lápices pastel sobre papel pintado</t>
   </si>
   <si>
-    <t>Dibujo a lápices sanguina y acuarelables sobre papel negro 300 gr</t>
-  </si>
-  <si>
     <t>40, 30</t>
   </si>
   <si>
@@ -318,33 +297,12 @@
     <t>gran formato</t>
   </si>
   <si>
-    <t>Pintura con tintas y acuarelas sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Técnica mixta sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Dibujo con lápices de colores y acuarelas sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Lápices acuarelables y acuarelas sobre papel 300 gr. Portada de libro</t>
-  </si>
-  <si>
-    <t>Dibujo con lápices acuarelables y acuarelas sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Retrato a lápiz 8B sobre papel</t>
   </si>
   <si>
-    <t>Dibujo a lápiz color sobre papel 200 gr</t>
-  </si>
-  <si>
     <t>Ilustración para poemario</t>
   </si>
   <si>
-    <t>Dibujo a lápiz carbon oil sobre papel 220 gr. Ilustración para video clip con canciones de Roberto Guevara</t>
-  </si>
-  <si>
     <t>Carrusel desde la vereda</t>
   </si>
   <si>
@@ -357,42 +315,21 @@
     <t>Niños en el gallinero</t>
   </si>
   <si>
-    <t>Dibujo con lápices de colores acuarelables, acuarelas y anilinas sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Pintura con técnica mixta sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Niña en el gallinero</t>
   </si>
   <si>
-    <t>Dibujo a lápices de colores, acuarelas y anilinas sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Lechuza de Rawson</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables con acuarelas y tintas sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Niña cosechadora de San Juan</t>
   </si>
   <si>
-    <t>Dibujo con lápices y pinceles, acuarelas, tintas y anilinas sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Tonada</t>
   </si>
   <si>
-    <t>Dibujo con acuarelas tintas y lápices acuarelables sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Quirquincho</t>
   </si>
   <si>
-    <t>Acuarelas, tintas, anilinas y lápices acuarelables sobre papel 200 gr</t>
-  </si>
-  <si>
     <t>40, 40</t>
   </si>
   <si>
@@ -402,15 +339,9 @@
     <t>dibujo</t>
   </si>
   <si>
-    <t>Dibujo a tinta sobre papel 200 gr</t>
-  </si>
-  <si>
     <t>El beso</t>
   </si>
   <si>
-    <t>Dibujo a tinta espesa con pincel y lápiz sobre papel 200 gr</t>
-  </si>
-  <si>
     <t>El zonda</t>
   </si>
   <si>
@@ -426,21 +357,12 @@
     <t>Señora de El Abanico</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>Autorretrato</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables y cafe sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>Alejandro comiendo pan</t>
   </si>
   <si>
-    <t xml:space="preserve">Dibujo a lápices acuarelables sobre papel pintado 300 gr </t>
-  </si>
-  <si>
     <t>Retrato de Eduardo Noé</t>
   </si>
   <si>
@@ -462,15 +384,9 @@
     <t>el_zonda(2).jpg</t>
   </si>
   <si>
-    <t>Dibujo con tintas y lápices acuarelables sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Milo</t>
   </si>
   <si>
-    <t>Dibujo a lápiz acuarelable sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>Beto</t>
   </si>
   <si>
@@ -480,9 +396,6 @@
     <t>Memoria</t>
   </si>
   <si>
-    <t>Dibujo a tinta sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>El baile</t>
   </si>
   <si>
@@ -495,27 +408,18 @@
     <t>culpable_es_la_noche(2).jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Dibujo a tintas sobre papel 220 gr </t>
-  </si>
-  <si>
     <t>45, 80</t>
   </si>
   <si>
     <t>80, 60</t>
   </si>
   <si>
-    <t>Dibujo a tintas sobre papel 220 gr. Díptico</t>
-  </si>
-  <si>
     <t>Uvitas Pocitanas</t>
   </si>
   <si>
     <t>La rebelión de los galgos, las aves y los peces</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables sobre papel 200 gr</t>
-  </si>
-  <si>
     <t>30, 40</t>
   </si>
   <si>
@@ -543,9 +447,6 @@
     <t>Tomate Pocitano</t>
   </si>
   <si>
-    <t>Lápiz acuarelable sobre papel 120 gr</t>
-  </si>
-  <si>
     <t>El almuerzo del domingo</t>
   </si>
   <si>
@@ -558,9 +459,6 @@
     <t>Tu papá mató un chancho?</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables sobre papel 300 gr</t>
-  </si>
-  <si>
     <t>Dibujo a tinta sobre madera</t>
   </si>
   <si>
@@ -588,15 +486,6 @@
     <t>Niño pastor</t>
   </si>
   <si>
-    <t>Tintas sobre papel 300 gr</t>
-  </si>
-  <si>
-    <t>Dibujo a tintas y cafe sobre papel 200 gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibujo a tinta sobre papel 300 gr </t>
-  </si>
-  <si>
     <t>serie</t>
   </si>
   <si>
@@ -762,9 +651,6 @@
     <t>los_reyna_en_el_44_de_chuña_a_san_juan.jpg</t>
   </si>
   <si>
-    <t>Dibujos a lápiz acuarelable con cafe sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>El Abanico</t>
   </si>
   <si>
@@ -798,9 +684,6 @@
     <t>Cuerpos perfectos</t>
   </si>
   <si>
-    <t>Dibujos acuarelados sobre papel 220 gr</t>
-  </si>
-  <si>
     <t>Dibujos a lápices sanguinas y acuarelables sobre papel 220gr</t>
   </si>
   <si>
@@ -874,6 +757,123 @@
   </si>
   <si>
     <t>el_abanico(3).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibujo a lápices acuarelables sobre papel pintado 300gr </t>
+  </si>
+  <si>
+    <t>Dibujo con lápices acuarelables y acuarelas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables y cafe sobre papel 220gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápiz acuarelable sobre papel 220gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibujo a tintas sobre papel 220gr </t>
+  </si>
+  <si>
+    <t>Dibujo a lápices sanguina y acuarelables sobre papel negro 300gr</t>
+  </si>
+  <si>
+    <t>Acuarelas y lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a tintas sobre papel 220gr. Díptico</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a tinta espesa con pincel y lápiz sobre papel 200gr</t>
+  </si>
+  <si>
+    <t>Acuarelas y lápices acuarelables sobre papel 120gr. Papel teñido</t>
+  </si>
+  <si>
+    <t>Lápices acuarelables y acuarelas sobre papel 300gr. Portada de libro</t>
+  </si>
+  <si>
+    <t>Pintura con tintas y acuarelas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Técnica mixta sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Pintura con técnica mixta sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Tintas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Lápiz acuarelable sobre papel 120gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables con acuarelas y tintas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a tinta sobre papel 200gr</t>
+  </si>
+  <si>
+    <t>Dibujo a tinta sobre papel 220gr</t>
+  </si>
+  <si>
+    <t>Dibujo con lápices de colores y acuarelas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo con lápices y pinceles, acuarelas, tintas y anilinas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices de colores, acuarelas y anilinas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Acuarelas, lápices acuarelables y tintas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibujo a tinta sobre papel 300gr </t>
+  </si>
+  <si>
+    <t>Dibujo a tintas y cafe sobre papel 200gr</t>
+  </si>
+  <si>
+    <t>Dibujo con lápices de colores acuarelables, acuarelas y anilinas sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujos acuarelados sobre papel 220gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápiz carbon oil sobre papel 220gr. Ilustración para video clip con canciones de Roberto Guevara</t>
+  </si>
+  <si>
+    <t>Acuarelas, tintas, anilinas y lápices acuarelables sobre papel 200gr</t>
+  </si>
+  <si>
+    <t>Pinturas, acuarelas, tintas y lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables sobre papel 220gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápiz color sobre papel 200gr</t>
+  </si>
+  <si>
+    <t>Dibujo con tinta y coloreado con anilina sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo con tintas y lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujos a lápiz acuarelable con cafe sobre papel 220gr</t>
+  </si>
+  <si>
+    <t>Dibujo con acuarelas tintas y lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo pintado con acuarelas y vino tinto sanjuanino sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables sobre papel 200gr</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1722,10 +1722,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1733,19 +1733,19 @@
         <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2">
         <v>2023</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1771,19 +1771,19 @@
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>2022</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -1809,19 +1809,19 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>2023</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1847,19 +1847,19 @@
         <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2">
         <v>2021</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -1885,19 +1885,19 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>2021</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -1923,22 +1923,22 @@
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>2017</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -1961,22 +1961,22 @@
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>2022</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -1985,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K8" s="4">
         <v>1331</v>
@@ -1999,19 +1999,19 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
         <v>2021</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>19</v>
@@ -2037,19 +2037,19 @@
         <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2">
         <v>2021</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
@@ -2075,19 +2075,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <v>2023</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
@@ -2116,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -2154,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
@@ -2192,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -2201,7 +2201,7 @@
         <v>2021</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
@@ -2227,19 +2227,19 @@
         <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E15" s="2">
         <v>2023</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
@@ -2265,13 +2265,13 @@
         <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -2294,19 +2294,19 @@
         <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>14</v>
@@ -2329,22 +2329,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2">
         <v>2018</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
@@ -2367,19 +2367,19 @@
         <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2">
         <v>2019</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
@@ -2405,19 +2405,19 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>2022</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
@@ -2443,19 +2443,19 @@
         <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2">
         <v>2021</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>19</v>
@@ -2481,19 +2481,19 @@
         <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2">
         <v>2021</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>19</v>
@@ -2519,19 +2519,19 @@
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E23" s="2">
         <v>2021</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
@@ -2557,19 +2557,19 @@
         <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E24" s="2">
         <v>2021</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
@@ -2595,19 +2595,19 @@
         <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E25" s="2">
         <v>2021</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
@@ -2633,22 +2633,22 @@
         <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2">
         <v>2021</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>14</v>
@@ -2657,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="K26" s="4">
         <v>1877</v>
@@ -2671,22 +2671,22 @@
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2">
         <v>2017</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>14</v>
@@ -2709,19 +2709,19 @@
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>2014</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>19</v>
@@ -2747,19 +2747,19 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2">
         <v>2019</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>19</v>
@@ -2785,22 +2785,22 @@
         <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2">
         <v>2018</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
@@ -2823,19 +2823,19 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2">
         <v>2021</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>19</v>
@@ -2861,13 +2861,13 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
@@ -2890,19 +2890,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E33" s="2">
         <v>2022</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -2928,19 +2928,19 @@
         <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2">
         <v>2023</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>19</v>
@@ -2969,16 +2969,16 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2">
         <v>2021</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>19</v>
@@ -3004,19 +3004,19 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2">
         <v>2021</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>19</v>
@@ -3042,13 +3042,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>14</v>
@@ -3063,7 +3063,7 @@
         <v>759</v>
       </c>
       <c r="L37" s="4">
-        <v>1350</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3071,22 +3071,22 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2">
         <v>2021</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>14</v>
@@ -3109,22 +3109,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2">
         <v>2021</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>14</v>
@@ -3147,19 +3147,19 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2">
         <v>2021</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>14</v>
@@ -3182,19 +3182,19 @@
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2">
         <v>2021</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>19</v>
@@ -3220,19 +3220,19 @@
         <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2">
         <v>2021</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>19</v>
@@ -3258,19 +3258,19 @@
         <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2">
         <v>2022</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>19</v>
@@ -3296,19 +3296,19 @@
         <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
         <v>2019</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -3334,22 +3334,22 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2">
         <v>2021</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>14</v>
@@ -3372,19 +3372,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2">
         <v>2022</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>19</v>
@@ -3410,19 +3410,19 @@
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2">
         <v>2017</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>19</v>
@@ -3448,13 +3448,13 @@
         <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>14</v>
@@ -3477,19 +3477,19 @@
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2">
         <v>2018</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
@@ -3515,19 +3515,19 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2">
         <v>2020</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>19</v>
@@ -3553,22 +3553,22 @@
         <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E51" s="2">
         <v>2017</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>14</v>
@@ -3591,19 +3591,19 @@
         <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2">
         <v>2021</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>19</v>
@@ -3629,19 +3629,19 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2">
         <v>2021</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>19</v>
@@ -3667,22 +3667,22 @@
         <v>28</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2">
         <v>2021</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>14</v>
@@ -3708,16 +3708,16 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="2">
         <v>2021</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>19</v>
@@ -3743,19 +3743,19 @@
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2">
         <v>2021</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>19</v>
@@ -3781,19 +3781,19 @@
         <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2">
         <v>2021</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>19</v>
@@ -3822,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>26</v>
@@ -3831,7 +3831,7 @@
         <v>2021</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>19</v>
@@ -3860,7 +3860,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>22</v>
@@ -3898,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
@@ -3933,19 +3933,19 @@
         <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2">
         <v>2021</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>19</v>
@@ -3974,16 +3974,16 @@
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="2">
         <v>2021</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>19</v>
@@ -4009,19 +4009,19 @@
         <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2">
         <v>2021</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>19</v>
@@ -4047,19 +4047,19 @@
         <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2">
         <v>2021</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>19</v>
@@ -4085,19 +4085,19 @@
         <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E65" s="2">
         <v>2023</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>19</v>
@@ -4123,19 +4123,19 @@
         <v>90</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E66" s="2">
         <v>2023</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>19</v>
@@ -4161,19 +4161,19 @@
         <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E67" s="2">
         <v>2023</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>19</v>
@@ -4199,19 +4199,19 @@
         <v>33</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2">
         <v>2022</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>14</v>
@@ -4234,19 +4234,19 @@
         <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E69" s="2">
         <v>2020</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>19</v>
@@ -4272,22 +4272,22 @@
         <v>41</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2">
         <v>2020</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>14</v>
@@ -4313,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>25</v>
@@ -4322,7 +4322,7 @@
         <v>2020</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>19</v>
@@ -4348,19 +4348,19 @@
         <v>49</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2">
         <v>2021</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>19</v>
@@ -4389,19 +4389,19 @@
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="2">
         <v>2020</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>14</v>
@@ -4424,22 +4424,22 @@
         <v>15</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E74" s="2">
         <v>2014</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>14</v>
@@ -4462,19 +4462,19 @@
         <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2">
         <v>2021</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>19</v>
@@ -4500,22 +4500,22 @@
         <v>14</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="2">
         <v>2017</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>14</v>
@@ -4538,19 +4538,19 @@
         <v>66</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2">
         <v>2021</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>19</v>
@@ -4576,19 +4576,19 @@
         <v>25</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E78" s="2">
         <v>2023</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>19</v>
@@ -4614,19 +4614,19 @@
         <v>19</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E79" s="2">
         <v>2021</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>19</v>
@@ -4652,19 +4652,19 @@
         <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E80" s="2">
         <v>2021</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>19</v>
@@ -4690,19 +4690,19 @@
         <v>78</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2">
         <v>2020</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H81" s="2">
         <v>1</v>
@@ -4725,19 +4725,19 @@
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2">
         <v>2020</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H82" s="2">
         <v>2</v>
@@ -4760,19 +4760,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2">
         <v>2020</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H83" s="2">
         <v>3</v>
@@ -4798,7 +4798,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>15</v>
@@ -4833,19 +4833,19 @@
         <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2">
         <v>2023</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>19</v>
@@ -4871,19 +4871,19 @@
         <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2">
         <v>2021</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>19</v>
@@ -4909,19 +4909,19 @@
         <v>40</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2">
         <v>2021</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>19</v>
@@ -4947,19 +4947,19 @@
         <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E88" s="2">
         <v>2021</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>19</v>
@@ -4985,22 +4985,22 @@
         <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2">
         <v>2018</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>14</v>
@@ -5023,19 +5023,19 @@
         <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E90" s="2">
         <v>2021</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>19</v>
@@ -5061,22 +5061,22 @@
         <v>63</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2">
         <v>2021</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>14</v>
@@ -5099,22 +5099,22 @@
         <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E92" s="2">
         <v>2018</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>14</v>
@@ -5137,13 +5137,13 @@
         <v>51</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>14</v>
@@ -5236,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="278">
   <si>
     <t>category</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Carrusel desde la vereda</t>
   </si>
   <si>
-    <t>Tintas, anilinas y lápices sobre lienzo</t>
-  </si>
-  <si>
     <t>100, 100</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>40, 40</t>
   </si>
   <si>
-    <t>1° Premio 2022 Salón Juego de Damas</t>
-  </si>
-  <si>
     <t>dibujo</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>60, 40</t>
   </si>
   <si>
-    <t>1° Premio 2021 Salón Juego de Damas</t>
-  </si>
-  <si>
     <t>La carretela</t>
   </si>
   <si>
@@ -506,9 +497,6 @@
     <t>Dibujo a tintas sobre papel 220gr. Díptico</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables sobre papel 300gr</t>
-  </si>
-  <si>
     <t>Dibujo a tinta espesa con pincel y lápiz sobre papel 200gr</t>
   </si>
   <si>
@@ -873,6 +861,15 @@
   </si>
   <si>
     <t>terminal(3)</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables sobre papel 300gr. 1° Premio 2021 Salón Internacional "Juego de Damas"</t>
+  </si>
+  <si>
+    <t>1° Premio</t>
+  </si>
+  <si>
+    <t>Tintas, anilinas y lápices sobre lienzo. 1° Premio 2022 Salón Internacional "Juego de Damas"</t>
   </si>
 </sst>
 </file>
@@ -957,7 +954,49 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -971,7 +1010,105 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1153,49 +1290,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1209,105 +1304,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1328,36 +1325,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:L103"/>
   <sortState ref="A2:L103">
     <sortCondition ref="A1:A103"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="10" name="order" dataDxfId="13"/>
-    <tableColumn id="1" name="category" dataDxfId="12"/>
-    <tableColumn id="2" name="image" dataDxfId="11"/>
-    <tableColumn id="3" name="title" dataDxfId="10"/>
-    <tableColumn id="4" name="date" dataDxfId="9"/>
-    <tableColumn id="5" name="technique" dataDxfId="8"/>
-    <tableColumn id="6" name="dimensions" dataDxfId="7"/>
-    <tableColumn id="7" name="series" dataDxfId="6"/>
-    <tableColumn id="8" name="onSale" dataDxfId="5"/>
-    <tableColumn id="9" name="awarded" dataDxfId="4"/>
-    <tableColumn id="12" name="width" dataDxfId="3"/>
-    <tableColumn id="13" name="height" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:J11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:J11"/>
-  <sortState ref="A2:J8">
-    <sortCondition ref="A1:A11"/>
-  </sortState>
-  <tableColumns count="10">
     <tableColumn id="10" name="order" dataDxfId="23"/>
     <tableColumn id="1" name="category" dataDxfId="22"/>
     <tableColumn id="2" name="image" dataDxfId="21"/>
@@ -1368,6 +1341,30 @@
     <tableColumn id="7" name="series" dataDxfId="16"/>
     <tableColumn id="8" name="onSale" dataDxfId="15"/>
     <tableColumn id="9" name="awarded" dataDxfId="14"/>
+    <tableColumn id="12" name="width" dataDxfId="13"/>
+    <tableColumn id="13" name="height" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J11"/>
+  <sortState ref="A2:J8">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="10" name="order" dataDxfId="9"/>
+    <tableColumn id="1" name="category" dataDxfId="8"/>
+    <tableColumn id="2" name="image" dataDxfId="7"/>
+    <tableColumn id="3" name="title" dataDxfId="6"/>
+    <tableColumn id="4" name="date" dataDxfId="5"/>
+    <tableColumn id="5" name="technique" dataDxfId="4"/>
+    <tableColumn id="6" name="dimensions" dataDxfId="3"/>
+    <tableColumn id="7" name="series" dataDxfId="2"/>
+    <tableColumn id="8" name="onSale" dataDxfId="1"/>
+    <tableColumn id="9" name="awarded" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1672,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1725,10 +1722,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1777,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -1815,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1853,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
@@ -1891,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
@@ -1929,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -1938,7 +1935,7 @@
         <v>2020</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
@@ -1967,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>26</v>
@@ -1976,7 +1973,7 @@
         <v>2021</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -2005,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -2014,7 +2011,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -2043,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>28</v>
@@ -2081,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -2090,7 +2087,7 @@
         <v>2021</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -2119,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -2128,7 +2125,7 @@
         <v>2021</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -2157,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
@@ -2195,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -2233,7 +2230,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>36</v>
@@ -2271,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -2309,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2347,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -2385,7 +2382,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>47</v>
@@ -2423,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>49</v>
@@ -2432,7 +2429,7 @@
         <v>2021</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>19</v>
@@ -2461,7 +2458,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>50</v>
@@ -2470,7 +2467,7 @@
         <v>2021</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>19</v>
@@ -2499,7 +2496,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>52</v>
@@ -2537,7 +2534,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>54</v>
@@ -2575,7 +2572,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>55</v>
@@ -2613,7 +2610,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>52</v>
@@ -2651,7 +2648,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>57</v>
@@ -2660,7 +2657,7 @@
         <v>2023</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>19</v>
@@ -2689,7 +2686,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>58</v>
@@ -2698,7 +2695,7 @@
         <v>2023</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>19</v>
@@ -2727,7 +2724,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>59</v>
@@ -2736,7 +2733,7 @@
         <v>2023</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>19</v>
@@ -2765,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>60</v>
@@ -2774,7 +2771,7 @@
         <v>2021</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>63</v>
@@ -2803,7 +2800,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>65</v>
@@ -2812,7 +2809,7 @@
         <v>2021</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>19</v>
@@ -2841,7 +2838,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>66</v>
@@ -2850,7 +2847,7 @@
         <v>2021</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>69</v>
@@ -2879,7 +2876,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>66</v>
@@ -2888,7 +2885,7 @@
         <v>2021</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>69</v>
@@ -2917,7 +2914,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>67</v>
@@ -2946,7 +2943,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>68</v>
@@ -2955,7 +2952,7 @@
         <v>2022</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>14</v>
@@ -2981,7 +2978,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>71</v>
@@ -2990,7 +2987,7 @@
         <v>2021</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>14</v>
@@ -3016,7 +3013,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>72</v>
@@ -3025,11 +3022,11 @@
         <v>2022</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="K36" s="4">
         <v>1331</v>
@@ -3054,16 +3051,16 @@
         <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="4">
         <v>2021</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>19</v>
@@ -3092,16 +3089,16 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="4">
         <v>2021</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>19</v>
@@ -3130,16 +3127,16 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="4">
         <v>2022</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>19</v>
@@ -3168,16 +3165,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4">
         <v>2021</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>19</v>
@@ -3206,16 +3203,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4">
         <v>2021</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>19</v>
@@ -3244,19 +3241,19 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="4">
         <v>2020</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>14</v>
@@ -3279,19 +3276,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>19</v>
@@ -3317,19 +3314,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4">
         <v>2014</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>19</v>
@@ -3355,19 +3352,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E45" s="4">
         <v>2021</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>19</v>
@@ -3396,16 +3393,16 @@
         <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E46" s="4">
         <v>2019</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
@@ -3434,16 +3431,16 @@
         <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="4">
         <v>2021</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>19</v>
@@ -3472,16 +3469,16 @@
         <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="4">
         <v>2021</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>19</v>
@@ -3510,16 +3507,16 @@
         <v>51</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="4">
         <v>2022</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>19</v>
@@ -3548,16 +3545,16 @@
         <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="4">
         <v>2021</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>19</v>
@@ -3583,13 +3580,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>14</v>
@@ -3612,10 +3609,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>45</v>
@@ -3641,13 +3638,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>14</v>
@@ -3670,13 +3667,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>14</v>
@@ -3699,10 +3696,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>49</v>
@@ -3711,7 +3708,7 @@
         <v>2021</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>19</v>
@@ -3737,19 +3734,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E56" s="4">
         <v>2021</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>19</v>
@@ -3775,19 +3772,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E57" s="4">
         <v>2021</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>19</v>
@@ -3813,19 +3810,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E58" s="4">
         <v>2021</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>19</v>
@@ -3851,19 +3848,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E59" s="4">
         <v>2020</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>19</v>
@@ -3889,22 +3886,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>14</v>
@@ -3927,22 +3924,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>14</v>
@@ -3965,22 +3962,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>14</v>
@@ -4003,19 +4000,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>14</v>
@@ -4038,22 +4035,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="4">
         <v>2021</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>14</v>
@@ -4076,22 +4073,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E65" s="4">
         <v>2021</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>14</v>
@@ -4114,19 +4111,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E66" s="4">
         <v>2019</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>19</v>
@@ -4152,19 +4149,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="4">
         <v>2021</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>19</v>
@@ -4190,19 +4187,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="4">
         <v>2019</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>19</v>
@@ -4228,19 +4225,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69" s="4">
         <v>2021</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>19</v>
@@ -4266,19 +4263,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E70" s="4">
         <v>2021</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>19</v>
@@ -4304,19 +4301,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E71" s="4">
         <v>2021</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>19</v>
@@ -4342,22 +4339,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E72" s="4">
         <v>2021</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>14</v>
@@ -4366,7 +4363,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="K72" s="4">
         <v>1877</v>
@@ -4380,22 +4377,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="4">
         <v>2018</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>14</v>
@@ -4418,19 +4415,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E74" s="4">
         <v>2018</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>12</v>
@@ -4456,19 +4453,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E75" s="4">
         <v>2018</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>44</v>
@@ -4494,19 +4491,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E76" s="4">
         <v>2022</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>19</v>
@@ -4532,19 +4529,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E77" s="4">
         <v>2021</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>19</v>
@@ -4570,19 +4567,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E78" s="4">
         <v>2021</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>19</v>
@@ -4608,19 +4605,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E79" s="4">
         <v>2020</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H79" s="4">
         <v>1</v>
@@ -4643,19 +4640,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E80" s="4">
         <v>2020</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H80" s="4">
         <v>2</v>
@@ -4678,19 +4675,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E81" s="4">
         <v>2020</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H81" s="4">
         <v>3</v>
@@ -4713,19 +4710,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E82" s="4">
         <v>2021</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>19</v>
@@ -4751,19 +4748,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E83" s="4">
         <v>2021</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>19</v>
@@ -4789,19 +4786,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E84" s="4">
         <v>2021</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>19</v>
@@ -4827,19 +4824,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E85" s="4">
         <v>2021</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>19</v>
@@ -4865,19 +4862,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E86" s="4">
         <v>2021</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>19</v>
@@ -4906,16 +4903,16 @@
         <v>64</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E87" s="4">
         <v>2023</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>19</v>
@@ -4944,16 +4941,16 @@
         <v>64</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E88" s="4">
         <v>2023</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>19</v>
@@ -4982,16 +4979,16 @@
         <v>64</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E89" s="4">
         <v>2023</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>19</v>
@@ -5017,19 +5014,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E90" s="4">
         <v>2023</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>19</v>
@@ -5055,19 +5052,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E91" s="4">
         <v>2023</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>19</v>
@@ -5093,19 +5090,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4">
         <v>2023</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>19</v>
@@ -5131,19 +5128,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E93" s="4">
         <v>2023</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>19</v>
@@ -5199,7 +5196,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elias\Desktop\Cristian\Varios\vsc\portfolio_carabante\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACDCDF-0237-4022-A5F4-1DF7BE8B0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="13500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workbook" sheetId="1" r:id="rId1"/>
     <sheet name="workbook (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="279">
   <si>
     <t>category</t>
   </si>
@@ -863,19 +864,22 @@
     <t>terminal(3)</t>
   </si>
   <si>
-    <t>Dibujo a lápices acuarelables sobre papel 300gr. 1° Premio 2021 Salón Internacional "Juego de Damas"</t>
-  </si>
-  <si>
-    <t>1° Premio</t>
-  </si>
-  <si>
-    <t>Tintas, anilinas y lápices sobre lienzo. 1° Premio 2022 Salón Internacional "Juego de Damas"</t>
+    <t>1° Premio 2022. Salón Internacional "Juego de Damas"</t>
+  </si>
+  <si>
+    <t>1° Premio 2021. Salón Internacional "Juego de Damas"</t>
+  </si>
+  <si>
+    <t>Dibujo a lápices acuarelables sobre papel 300gr</t>
+  </si>
+  <si>
+    <t>Tintas, anilinas y lápices sobre lienzo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,46 +1329,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:L103"/>
-  <sortState ref="A2:L103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:L103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L103">
     <sortCondition ref="A1:A103"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="10" name="order" dataDxfId="23"/>
-    <tableColumn id="1" name="category" dataDxfId="22"/>
-    <tableColumn id="2" name="image" dataDxfId="21"/>
-    <tableColumn id="3" name="title" dataDxfId="20"/>
-    <tableColumn id="4" name="date" dataDxfId="19"/>
-    <tableColumn id="5" name="technique" dataDxfId="18"/>
-    <tableColumn id="6" name="dimensions" dataDxfId="17"/>
-    <tableColumn id="7" name="series" dataDxfId="16"/>
-    <tableColumn id="8" name="onSale" dataDxfId="15"/>
-    <tableColumn id="9" name="awarded" dataDxfId="14"/>
-    <tableColumn id="12" name="width" dataDxfId="13"/>
-    <tableColumn id="13" name="height" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="order" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="category" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="image" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="date" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="technique" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="dimensions" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="series" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="onSale" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="awarded" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="width" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="height" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J11"/>
-  <sortState ref="A2:J8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="10" name="order" dataDxfId="9"/>
-    <tableColumn id="1" name="category" dataDxfId="8"/>
-    <tableColumn id="2" name="image" dataDxfId="7"/>
-    <tableColumn id="3" name="title" dataDxfId="6"/>
-    <tableColumn id="4" name="date" dataDxfId="5"/>
-    <tableColumn id="5" name="technique" dataDxfId="4"/>
-    <tableColumn id="6" name="dimensions" dataDxfId="3"/>
-    <tableColumn id="7" name="series" dataDxfId="2"/>
-    <tableColumn id="8" name="onSale" dataDxfId="1"/>
-    <tableColumn id="9" name="awarded" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="order" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="category" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="image" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="title" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="technique" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="dimensions" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="series" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="onSale" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="awarded" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1666,31 +1670,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="13" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2032,7 +2036,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2412,7 +2416,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>2022</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>73</v>
@@ -3034,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K36" s="4">
         <v>1331</v>
@@ -3043,7 +3047,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3633,7 +3637,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3957,7 +3961,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>2021</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>122</v>
@@ -4372,7 +4376,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -5172,29 +5176,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>93</v>
       </c>
@@ -5244,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>94</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>95</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>96</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>97</v>
       </c>
@@ -5316,7 +5320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>98</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>99</v>
       </c>

--- a/assets/data/projects.xlsx
+++ b/assets/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\portfolio_carabante\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCACDCDF-0237-4022-A5F4-1DF7BE8B0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF213361-9577-4AAA-9EBA-E82907B515FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="314">
   <si>
     <t>category</t>
   </si>
@@ -874,13 +874,118 @@
   </si>
   <si>
     <t>Tintas, anilinas y lápices sobre lienzo</t>
+  </si>
+  <si>
+    <t>escultura</t>
+  </si>
+  <si>
+    <t>Modelado con arcilla roja y engobes</t>
+  </si>
+  <si>
+    <t>Retrato de Porota</t>
+  </si>
+  <si>
+    <t>Modelado en arcilla blanca, pintada con engobes</t>
+  </si>
+  <si>
+    <t>45cm altura</t>
+  </si>
+  <si>
+    <t>Niña dibujante</t>
+  </si>
+  <si>
+    <t>Modelado con arcilla roja y horneado al fuego directo</t>
+  </si>
+  <si>
+    <t>20cm altura</t>
+  </si>
+  <si>
+    <t>La emperatriz</t>
+  </si>
+  <si>
+    <t>Modelado con arcilla blanca esmaltada</t>
+  </si>
+  <si>
+    <t>Sin nombre</t>
+  </si>
+  <si>
+    <t>Modelado con arcilla roja</t>
+  </si>
+  <si>
+    <t>Retrato de Antonia</t>
+  </si>
+  <si>
+    <t>Modelado en arcilla blanca esmaltada y engobada; empotrada sobre madera</t>
+  </si>
+  <si>
+    <t>Recreación del pájaro de El Bosco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelado con masa de papel Das, en formato pequeño y pintada con acrílicos </t>
+  </si>
+  <si>
+    <t>Escultura de músico</t>
+  </si>
+  <si>
+    <t>Modelado en arcilla roja</t>
+  </si>
+  <si>
+    <t>30cm altura</t>
+  </si>
+  <si>
+    <t>Relieve en proceso</t>
+  </si>
+  <si>
+    <t>Modelado en arcilla blanca</t>
+  </si>
+  <si>
+    <t>Modelado arcilla blanca y esmaltado</t>
+  </si>
+  <si>
+    <t>retrato_de_porota</t>
+  </si>
+  <si>
+    <t>niña_dibujante</t>
+  </si>
+  <si>
+    <t>la_emperatriz</t>
+  </si>
+  <si>
+    <t>sin_nombre</t>
+  </si>
+  <si>
+    <t>retrato_de_antonia</t>
+  </si>
+  <si>
+    <t>recreación_del_pájaro_de_el_bosco</t>
+  </si>
+  <si>
+    <t>escultura_de_músico</t>
+  </si>
+  <si>
+    <t>relieve_en_proceso</t>
+  </si>
+  <si>
+    <t>perro(1)</t>
+  </si>
+  <si>
+    <t>perro(2)</t>
+  </si>
+  <si>
+    <t>perro(3)</t>
+  </si>
+  <si>
+    <t>perro(4)</t>
+  </si>
+  <si>
+    <t>Perro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +1013,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -929,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,6 +1056,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,10 +1446,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:L103" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:L103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L103">
-    <sortCondition ref="A1:A103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:L158" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:L158" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L158">
+    <sortCondition ref="A1:A158"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="order" dataDxfId="23"/>
@@ -1353,11 +1470,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J8">
-    <sortCondition ref="A1:A11"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla13" displayName="Tabla13" ref="A1:J16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="order" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="category" dataDxfId="8"/>
@@ -1671,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1682,13 +1796,13 @@
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="85" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.453125" style="3"/>
@@ -5162,6 +5276,470 @@
         <v>1800</v>
       </c>
       <c r="L93" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="4">
+        <v>788</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="4">
+        <v>639</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="4">
+        <v>759</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="4">
+        <v>639</v>
+      </c>
+      <c r="L97" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="4">
+        <v>639</v>
+      </c>
+      <c r="L98" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="4">
+        <v>639</v>
+      </c>
+      <c r="L99" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1012</v>
+      </c>
+      <c r="L100" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="4">
+        <v>639</v>
+      </c>
+      <c r="L101" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="4">
+        <v>639</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="4">
+        <v>759</v>
+      </c>
+      <c r="L103" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="4">
+        <v>759</v>
+      </c>
+      <c r="L104" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="4">
+        <v>2400</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="4">
+        <v>759</v>
+      </c>
+      <c r="L106" s="4">
         <v>1350</v>
       </c>
     </row>
@@ -5177,10 +5755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5232,129 +5810,243 @@
     </row>
     <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_") &amp; ".jpg"</f>
-        <v>.jpg</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>SUBSTITUTE(LOWER(Tabla13[[#This Row],[title]]), " ", "_")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
